--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3415.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3415.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.292541504705632</v>
+        <v>1.619848132133484</v>
       </c>
       <c r="B1">
-        <v>1.830563781757502</v>
+        <v>4.322647571563721</v>
       </c>
       <c r="C1">
-        <v>3.405183194683155</v>
+        <v>3.527450323104858</v>
       </c>
       <c r="D1">
-        <v>5.288304117766486</v>
+        <v>1.788435697555542</v>
       </c>
       <c r="E1">
-        <v>1.20323714625088</v>
+        <v>1.036090970039368</v>
       </c>
     </row>
   </sheetData>
